--- a/~test2_ts.xlsx
+++ b/~test2_ts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="test2_001" sheetId="1" r:id="rId1"/>
@@ -42,50 +42,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段在TS中的数据类型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段在C#中的数据类型</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -118,34 +74,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段在TS中的数据类型</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>ID</t>
   </si>
@@ -175,15 +109,6 @@
   </si>
   <si>
     <t>boolean[]</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>bool[]</t>
   </si>
   <si>
     <t>第几天</t>
@@ -270,21 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,47 +211,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,9 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,39 +272,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,13 +347,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,157 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +548,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,7 +587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,36 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -712,142 +637,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1250,52 +1175,52 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1304,16 +1229,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1325,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1346,16 +1271,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1367,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1388,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1409,30 +1334,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:9">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <v>201</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1509,22 +1413,22 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I3"/>
     </row>
@@ -1533,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1545,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1554,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
@@ -1566,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1575,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1587,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6"/>
     </row>
@@ -1596,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1608,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7"/>
     </row>
@@ -1617,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1629,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1638,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1650,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9"/>
     </row>
@@ -1659,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1671,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10"/>
     </row>

--- a/~test2_ts.xlsx
+++ b/~test2_ts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11720"/>
+    <workbookView windowWidth="28000" windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="test2_001" sheetId="1" r:id="rId1"/>
@@ -14,73 +14,21 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>miles</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段名</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>miles</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t>miles:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="方正书宋_GBK"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-本行为字段名</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>boolean[]</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -97,18 +45,6 @@
   </si>
   <si>
     <t>rate</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>boolean[]</t>
   </si>
   <si>
     <t>第几天</t>
@@ -161,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -188,8 +124,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,40 +184,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,85 +200,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +277,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,157 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,45 +476,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +504,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,13 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,145 +573,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1108,10 +1044,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1128,99 +1064,81 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" s="1" customFormat="1" spans="9:9">
       <c r="I1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>201</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1229,16 +1147,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1250,16 +1168,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1271,16 +1189,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1292,16 +1210,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1319,10 +1237,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1334,25 +1252,45 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10"/>
+      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1369,99 +1307,81 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="1" s="1" customFormat="1" spans="9:9">
       <c r="I1"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>201</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>201</v>
@@ -1470,16 +1390,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:9">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1491,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1512,16 +1432,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:9">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1533,16 +1453,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:9">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1560,10 +1480,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1575,14 +1495,34 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:9">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>201</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10"/>
+      <c r="I11"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/~test2_ts.xlsx
+++ b/~test2_ts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16840"/>
+    <workbookView windowHeight="16840"/>
   </bookViews>
   <sheets>
     <sheet name="test2_001" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>number</t>
   </si>
@@ -47,6 +47,9 @@
     <t>rate</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>第几天</t>
   </si>
   <si>
@@ -65,31 +68,55 @@
     <t>倍率(百分位)</t>
   </si>
   <si>
+    <t>文本</t>
+  </si>
+  <si>
     <t>第1天</t>
   </si>
   <si>
     <t>1;0;0;</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>第2天</t>
   </si>
   <si>
     <t>1;0;1</t>
   </si>
   <si>
+    <t>charator_50</t>
+  </si>
+  <si>
     <t>第3天</t>
   </si>
   <si>
+    <t>charator_51</t>
+  </si>
+  <si>
     <t>第4天</t>
   </si>
   <si>
+    <t>charator_52</t>
+  </si>
+  <si>
     <t>第5天</t>
   </si>
   <si>
+    <t>charator_53</t>
+  </si>
+  <si>
     <t>第6天</t>
   </si>
   <si>
+    <t>charator_54</t>
+  </si>
+  <si>
     <t>第7天</t>
+  </si>
+  <si>
+    <t>charator_55</t>
   </si>
 </sst>
 </file>
@@ -97,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,31 +145,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,8 +173,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,25 +197,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,69 +257,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,37 +304,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +436,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,115 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,17 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,11 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,26 +554,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,148 +600,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1074,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G6" sqref="G6:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1086,6 +1113,9 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:9">
@@ -1107,26 +1137,32 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="I3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1135,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1147,7 +1183,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1156,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1168,7 +1207,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I6"/>
     </row>
@@ -1177,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1189,7 +1231,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I7"/>
     </row>
@@ -1198,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1210,7 +1255,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1219,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1231,7 +1279,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I9"/>
     </row>
@@ -1240,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1252,7 +1303,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="I10"/>
     </row>
@@ -1261,7 +1315,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -1273,7 +1327,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I11"/>
     </row>
@@ -1354,22 +1411,22 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1378,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1390,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1399,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -1411,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6"/>
     </row>
@@ -1420,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -1432,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7"/>
     </row>
@@ -1441,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1453,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1462,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1474,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9"/>
     </row>
@@ -1483,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1495,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10"/>
     </row>
@@ -1504,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -1516,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I11"/>
     </row>

--- a/~test2_ts.xlsx
+++ b/~test2_ts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18460" activeTab="2"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="test2_001" sheetId="1" r:id="rId1"/>
@@ -177,6 +177,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>number[]</t>
+  </si>
+  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -274,9 +277,6 @@
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t>number[]</t>
   </si>
   <si>
     <t>NPCID</t>
@@ -437,10 +437,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -451,13 +451,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -470,24 +470,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,9 +485,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -513,8 +498,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,8 +528,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -544,25 +558,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,33 +572,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,9 +596,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -647,19 +647,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,157 +809,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,6 +866,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -881,13 +905,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,54 +952,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,149 +965,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,16 +1115,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1566,8 +1566,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1575,7 +1575,7 @@
     <col min="1" max="1" width="11.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.4615384615385" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="51.5" style="5" customWidth="1"/>
@@ -1598,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
@@ -1613,49 +1613,49 @@
     </row>
     <row r="3" s="5" customFormat="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1664,22 +1664,20 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>-2</v>
       </c>
-      <c r="D5" s="5">
-        <v>201</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1688,22 +1686,20 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>7.5</v>
       </c>
-      <c r="D6" s="5">
-        <v>201</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6"/>
     </row>
@@ -1712,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -1724,10 +1720,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7"/>
     </row>
@@ -1736,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -1748,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1760,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <v>7</v>
@@ -1772,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9"/>
     </row>
@@ -1784,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -1796,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10"/>
     </row>
@@ -1808,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -1820,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11"/>
     </row>
@@ -1874,52 +1870,52 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1928,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -1940,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1949,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>7</v>
@@ -1961,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6"/>
     </row>
@@ -1970,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -1982,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7"/>
     </row>
@@ -1991,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -2003,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8"/>
     </row>
@@ -2012,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5">
         <v>7</v>
@@ -2024,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9"/>
     </row>
@@ -2033,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -2045,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10"/>
     </row>
@@ -2054,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -2066,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11"/>
     </row>
@@ -2082,115 +2078,115 @@
   <sheetPr/>
   <dimension ref="A2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="58.5" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="12" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="58.5" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="14.4" spans="1:16">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A3" s="2" t="s">
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:15">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+    <row r="4" s="2" customFormat="1" spans="1:16">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+    <row r="5" s="2" customFormat="1" spans="1:16">
       <c r="A5" s="3">
         <v>10201</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+    <row r="6" s="2" customFormat="1" spans="1:16">
       <c r="A6" s="3">
         <v>10301</v>
       </c>
@@ -2332,7 +2328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
+    <row r="7" s="2" customFormat="1" spans="1:16">
       <c r="A7" s="3">
         <v>10401</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:16">
+    <row r="8" s="2" customFormat="1" spans="1:16">
       <c r="A8" s="3">
         <v>10402</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:16">
+    <row r="9" s="2" customFormat="1" spans="1:16">
       <c r="A9" s="3">
         <v>10501</v>
       </c>
@@ -2455,7 +2451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:16">
+    <row r="10" s="2" customFormat="1" spans="1:16">
       <c r="A10" s="3">
         <v>10502</v>
       </c>
@@ -2498,7 +2494,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:16">
+    <row r="11" s="2" customFormat="1" spans="1:16">
       <c r="A11" s="3">
         <v>10601</v>
       </c>
@@ -2543,7 +2539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:16">
+    <row r="12" s="2" customFormat="1" spans="1:16">
       <c r="A12" s="3">
         <v>10602</v>
       </c>
@@ -2584,8 +2580,8 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="13:13">
-      <c r="M17" s="1" t="s">
+    <row r="17" s="2" customFormat="1" spans="13:13">
+      <c r="M17" s="2" t="s">
         <v>86</v>
       </c>
     </row>

--- a/~test2_ts.xlsx
+++ b/~test2_ts.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>number</t>
   </si>
@@ -186,6 +186,9 @@
     <t>boolean[]</t>
   </si>
   <si>
+    <t>string[]</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>strArr</t>
+  </si>
+  <si>
     <t>第几天</t>
   </si>
   <si>
@@ -258,10 +264,16 @@
     <t>charator_52</t>
   </si>
   <si>
+    <t>charator_52;</t>
+  </si>
+  <si>
     <t>第5天</t>
   </si>
   <si>
     <t>charator_53</t>
+  </si>
+  <si>
+    <t>charator_53;22</t>
   </si>
   <si>
     <t>第6天</t>
@@ -437,10 +449,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -470,14 +482,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,30 +503,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,14 +527,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,61 +594,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,6 +609,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +629,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -641,187 +653,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,8 +878,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,24 +913,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,149 +977,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1567,7 +1579,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1579,7 +1591,7 @@
     <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="51.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5"/>
+    <col min="8" max="8" width="18.6923076923077" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.875" customWidth="1"/>
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
@@ -1609,53 +1621,62 @@
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I2"/>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1664,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>-2</v>
       </c>
-      <c r="D5" s="5"/>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="I5"/>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:9">
@@ -1686,21 +1707,21 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5">
         <v>7.5</v>
       </c>
-      <c r="D6" s="5"/>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6"/>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:9">
@@ -1708,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -1720,11 +1741,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H7" s="5"/>
       <c r="I7"/>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:9">
@@ -1732,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -1744,10 +1766,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I8"/>
     </row>
@@ -1756,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5">
         <v>7</v>
@@ -1768,10 +1793,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="I9"/>
     </row>
@@ -1780,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -1792,10 +1820,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I10"/>
     </row>
@@ -1804,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -1816,10 +1847,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="I11"/>
     </row>
@@ -1879,43 +1913,43 @@
     </row>
     <row r="3" s="5" customFormat="1" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4"/>
     </row>
@@ -1924,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -1936,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5"/>
     </row>
@@ -1945,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5">
         <v>7</v>
@@ -1957,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6"/>
     </row>
@@ -1966,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
@@ -1978,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7"/>
     </row>
@@ -1987,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -1999,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I8"/>
     </row>
@@ -2008,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="5">
         <v>7</v>
@@ -2020,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9"/>
     </row>
@@ -2029,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5">
         <v>7</v>
@@ -2041,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10"/>
     </row>
@@ -2050,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5">
         <v>7</v>
@@ -2062,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11"/>
     </row>
@@ -2106,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -2115,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
@@ -2145,95 +2179,95 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="14.4" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:16">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:16">
@@ -2254,22 +2288,22 @@
         <v>30001</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3">
         <v>40001</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2278,7 +2312,7 @@
         <v>50001</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:16">
@@ -2299,22 +2333,22 @@
         <v>30002</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3">
         <v>40002</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="L6" s="3">
         <v>11001</v>
@@ -2325,7 +2359,7 @@
         <v>50002</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:16">
@@ -2346,18 +2380,18 @@
         <v>30003</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2366,7 +2400,7 @@
         <v>50003</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:16">
@@ -2387,18 +2421,18 @@
         <v>30004</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2407,7 +2441,7 @@
         <v>50004</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:16">
@@ -2428,18 +2462,18 @@
         <v>30005</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2448,7 +2482,7 @@
         <v>50005</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:16">
@@ -2469,18 +2503,18 @@
         <v>30006</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3">
@@ -2512,22 +2546,22 @@
         <v>30007</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G11" s="3">
         <v>40007</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2536,7 +2570,7 @@
         <v>50007</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:16">
@@ -2557,18 +2591,18 @@
         <v>30008</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2582,7 +2616,7 @@
     </row>
     <row r="17" s="2" customFormat="1" spans="13:13">
       <c r="M17" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
